--- a/data/Apuestas_TOTAL.xlsx
+++ b/data/Apuestas_TOTAL.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\IronHack\Bootcamp\Proyectos\3 - Proyecto ETL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_5B01C5C71BF52C02DAB34E4F73C4D1CFC63DE635" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E694708-006F-4E72-B917-C60B138EFEA6}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="54">
   <si>
     <t>country</t>
   </si>
@@ -186,8 +200,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,8 +225,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +262,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -317,30 +350,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -568,15 +620,21 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -596,21 +654,15 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -627,22 +679,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D777" totalsRowShown="0" headerRowDxfId="21">
-  <autoFilter ref="A1:D777"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:D814" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:D814" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Columna1" dataDxfId="22"/>
-    <tableColumn id="2" name="country"/>
-    <tableColumn id="3" name="codigo"/>
-    <tableColumn id="4" name="bet_mean"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Columna1" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="country"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="codigo"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="bet_mean"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -680,9 +732,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -717,7 +769,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -752,7 +804,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -925,21 +977,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D777"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D814"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A788" workbookViewId="0">
+      <selection activeCell="D794" sqref="D794"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -953,7 +1005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -967,7 +1019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -981,7 +1033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -995,7 +1047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1009,7 +1061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1023,7 +1075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1037,7 +1089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1051,7 +1103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -1065,7 +1117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1079,7 +1131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -1093,7 +1145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1107,7 +1159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -1121,7 +1173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1135,7 +1187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1149,7 +1201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1163,7 +1215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>22</v>
@@ -1175,7 +1227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>42</v>
@@ -1187,7 +1239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -1199,7 +1251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>26</v>
@@ -1211,7 +1263,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
         <v>24</v>
@@ -1223,7 +1275,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>33</v>
@@ -1235,7 +1287,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>27</v>
@@ -1247,7 +1299,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
         <v>30</v>
@@ -1259,7 +1311,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="8" t="s">
         <v>32</v>
@@ -1271,7 +1323,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>0</v>
       </c>
@@ -1285,7 +1337,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>4</v>
       </c>
@@ -1299,7 +1351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>3</v>
       </c>
@@ -1313,7 +1365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -1327,7 +1379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>2</v>
       </c>
@@ -1341,7 +1393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>5</v>
       </c>
@@ -1355,7 +1407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>6</v>
       </c>
@@ -1369,7 +1421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>7</v>
       </c>
@@ -1383,7 +1435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>10</v>
       </c>
@@ -1397,7 +1449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -1411,7 +1463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>8</v>
       </c>
@@ -1425,7 +1477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>11</v>
       </c>
@@ -1439,7 +1491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>12</v>
       </c>
@@ -1453,7 +1505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>13</v>
       </c>
@@ -1467,7 +1519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>14</v>
       </c>
@@ -1481,7 +1533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
         <v>26</v>
@@ -1493,7 +1545,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
         <v>7</v>
@@ -1505,7 +1557,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
         <v>8</v>
@@ -1517,7 +1569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="4" t="s">
         <v>39</v>
@@ -1529,7 +1581,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
         <v>28</v>
@@ -1541,7 +1593,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="4" t="s">
         <v>15</v>
@@ -1553,7 +1605,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="2" t="s">
         <v>42</v>
@@ -1565,7 +1617,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
         <v>10</v>
@@ -1577,7 +1629,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
         <v>47</v>
@@ -1589,7 +1641,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="4" t="s">
         <v>13</v>
@@ -1601,7 +1653,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="8" t="s">
         <v>16</v>
@@ -1613,7 +1665,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>0</v>
       </c>
@@ -1627,7 +1679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>4</v>
       </c>
@@ -1641,7 +1693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>2</v>
       </c>
@@ -1655,7 +1707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>3</v>
       </c>
@@ -1669,7 +1721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>1</v>
       </c>
@@ -1683,7 +1735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>5</v>
       </c>
@@ -1697,7 +1749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>8</v>
       </c>
@@ -1711,7 +1763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>7</v>
       </c>
@@ -1725,7 +1777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>6</v>
       </c>
@@ -1739,7 +1791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>9</v>
       </c>
@@ -1753,7 +1805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>13</v>
       </c>
@@ -1767,7 +1819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>12</v>
       </c>
@@ -1781,7 +1833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>10</v>
       </c>
@@ -1795,7 +1847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>11</v>
       </c>
@@ -1809,7 +1861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>14</v>
       </c>
@@ -1823,7 +1875,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="2" t="s">
         <v>44</v>
@@ -1835,7 +1887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="4" t="s">
         <v>23</v>
@@ -1847,7 +1899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="2" t="s">
         <v>15</v>
@@ -1859,7 +1911,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="4" t="s">
         <v>33</v>
@@ -1871,7 +1923,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="2" t="s">
         <v>6</v>
@@ -1883,7 +1935,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="4" t="s">
         <v>39</v>
@@ -1895,7 +1947,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="2" t="s">
         <v>22</v>
@@ -1907,7 +1959,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="4" t="s">
         <v>20</v>
@@ -1919,7 +1971,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="2" t="s">
         <v>19</v>
@@ -1931,7 +1983,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="4" t="s">
         <v>8</v>
@@ -1943,7 +1995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="2" t="s">
         <v>21</v>
@@ -1955,7 +2007,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="4" t="s">
         <v>31</v>
@@ -1967,7 +2019,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="2" t="s">
         <v>30</v>
@@ -1979,7 +2031,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="4" t="s">
         <v>32</v>
@@ -1991,7 +2043,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="2" t="s">
         <v>13</v>
@@ -2003,7 +2055,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="4" t="s">
         <v>47</v>
@@ -2015,7 +2067,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="2" t="s">
         <v>50</v>
@@ -2027,7 +2079,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="4" t="s">
         <v>53</v>
@@ -2039,7 +2091,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="2" t="s">
         <v>42</v>
@@ -2051,7 +2103,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="4" t="s">
         <v>12</v>
@@ -2063,7 +2115,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="8" t="s">
         <v>5</v>
@@ -2075,7 +2127,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>0</v>
       </c>
@@ -2089,7 +2141,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>1</v>
       </c>
@@ -2103,7 +2155,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>4</v>
       </c>
@@ -2117,7 +2169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>2</v>
       </c>
@@ -2131,7 +2183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>3</v>
       </c>
@@ -2145,7 +2197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>5</v>
       </c>
@@ -2159,7 +2211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>6</v>
       </c>
@@ -2173,7 +2225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>10</v>
       </c>
@@ -2187,7 +2239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>7</v>
       </c>
@@ -2201,7 +2253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>8</v>
       </c>
@@ -2215,7 +2267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>9</v>
       </c>
@@ -2229,7 +2281,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>11</v>
       </c>
@@ -2243,7 +2295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>13</v>
       </c>
@@ -2257,7 +2309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>12</v>
       </c>
@@ -2271,7 +2323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>14</v>
       </c>
@@ -2285,7 +2337,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="2" t="s">
         <v>22</v>
@@ -2297,7 +2349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="4" t="s">
         <v>42</v>
@@ -2309,7 +2361,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="2" t="s">
         <v>12</v>
@@ -2321,7 +2373,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="4" t="s">
         <v>48</v>
@@ -2333,7 +2385,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="2" t="s">
         <v>25</v>
@@ -2345,7 +2397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="4" t="s">
         <v>15</v>
@@ -2357,7 +2409,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="2" t="s">
         <v>26</v>
@@ -2369,7 +2421,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="4" t="s">
         <v>17</v>
@@ -2381,7 +2433,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="2" t="s">
         <v>44</v>
@@ -2393,7 +2445,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="4" t="s">
         <v>33</v>
@@ -2405,7 +2457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="2" t="s">
         <v>28</v>
@@ -2417,7 +2469,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="4" t="s">
         <v>14</v>
@@ -2429,7 +2481,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="2" t="s">
         <v>9</v>
@@ -2441,7 +2493,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="4" t="s">
         <v>3</v>
@@ -2453,7 +2505,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="2" t="s">
         <v>8</v>
@@ -2465,7 +2517,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="4" t="s">
         <v>27</v>
@@ -2477,7 +2529,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="2" t="s">
         <v>34</v>
@@ -2489,7 +2541,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="4" t="s">
         <v>18</v>
@@ -2501,7 +2553,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="2" t="s">
         <v>13</v>
@@ -2513,7 +2565,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="4" t="s">
         <v>53</v>
@@ -2525,7 +2577,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="2" t="s">
         <v>50</v>
@@ -2537,7 +2589,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="4" t="s">
         <v>39</v>
@@ -2549,7 +2601,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="2" t="s">
         <v>47</v>
@@ -2561,7 +2613,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="7" t="s">
         <v>7</v>
@@ -2573,7 +2625,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>0</v>
       </c>
@@ -2587,7 +2639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>1</v>
       </c>
@@ -2601,7 +2653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>2</v>
       </c>
@@ -2615,7 +2667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>4</v>
       </c>
@@ -2629,7 +2681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>5</v>
       </c>
@@ -2643,7 +2695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>3</v>
       </c>
@@ -2657,7 +2709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>6</v>
       </c>
@@ -2671,7 +2723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>7</v>
       </c>
@@ -2685,7 +2737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>8</v>
       </c>
@@ -2699,7 +2751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>9</v>
       </c>
@@ -2713,7 +2765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>10</v>
       </c>
@@ -2727,7 +2779,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>11</v>
       </c>
@@ -2741,7 +2793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>12</v>
       </c>
@@ -2755,7 +2807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>14</v>
       </c>
@@ -2769,7 +2821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>13</v>
       </c>
@@ -2783,7 +2835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="2" t="s">
         <v>17</v>
@@ -2795,7 +2847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="4" t="s">
         <v>32</v>
@@ -2807,7 +2859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="2" t="s">
         <v>28</v>
@@ -2819,7 +2871,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="4" t="s">
         <v>35</v>
@@ -2831,7 +2883,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="2" t="s">
         <v>18</v>
@@ -2843,7 +2895,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="4" t="s">
         <v>26</v>
@@ -2855,7 +2907,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="2" t="s">
         <v>12</v>
@@ -2867,7 +2919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="4" t="s">
         <v>48</v>
@@ -2879,7 +2931,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="2" t="s">
         <v>14</v>
@@ -2891,7 +2943,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="4" t="s">
         <v>9</v>
@@ -2903,7 +2955,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="2" t="s">
         <v>42</v>
@@ -2915,7 +2967,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="4" t="s">
         <v>34</v>
@@ -2927,7 +2979,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="2" t="s">
         <v>13</v>
@@ -2939,7 +2991,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="4" t="s">
         <v>31</v>
@@ -2951,7 +3003,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="2" t="s">
         <v>10</v>
@@ -2963,7 +3015,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="4" t="s">
         <v>39</v>
@@ -2975,7 +3027,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="2" t="s">
         <v>19</v>
@@ -2987,7 +3039,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="4" t="s">
         <v>5</v>
@@ -2999,7 +3051,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="2" t="s">
         <v>50</v>
@@ -3011,7 +3063,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="4" t="s">
         <v>44</v>
@@ -3023,7 +3075,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="2" t="s">
         <v>47</v>
@@ -3035,7 +3087,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="7" t="s">
         <v>53</v>
@@ -3047,7 +3099,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>0</v>
       </c>
@@ -3061,7 +3113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>1</v>
       </c>
@@ -3075,7 +3127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>2</v>
       </c>
@@ -3089,7 +3141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>3</v>
       </c>
@@ -3103,7 +3155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>4</v>
       </c>
@@ -3117,7 +3169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>5</v>
       </c>
@@ -3131,7 +3183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>6</v>
       </c>
@@ -3145,7 +3197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>7</v>
       </c>
@@ -3159,7 +3211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>8</v>
       </c>
@@ -3173,7 +3225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>9</v>
       </c>
@@ -3187,7 +3239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>10</v>
       </c>
@@ -3201,7 +3253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>11</v>
       </c>
@@ -3215,7 +3267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>12</v>
       </c>
@@ -3229,7 +3281,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>13</v>
       </c>
@@ -3243,7 +3295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>14</v>
       </c>
@@ -3257,7 +3309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="2" t="s">
         <v>52</v>
@@ -3269,7 +3321,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="4" t="s">
         <v>28</v>
@@ -3281,7 +3333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="2" t="s">
         <v>17</v>
@@ -3293,7 +3345,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="4" t="s">
         <v>26</v>
@@ -3305,7 +3357,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="2" t="s">
         <v>34</v>
@@ -3317,7 +3369,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="4" t="s">
         <v>31</v>
@@ -3329,7 +3381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="2" t="s">
         <v>35</v>
@@ -3341,7 +3393,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="4" t="s">
         <v>29</v>
@@ -3353,7 +3405,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="2" t="s">
         <v>48</v>
@@ -3365,7 +3417,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="4" t="s">
         <v>40</v>
@@ -3377,7 +3429,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="2" t="s">
         <v>13</v>
@@ -3389,7 +3441,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="4" t="s">
         <v>12</v>
@@ -3401,7 +3453,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="2" t="s">
         <v>14</v>
@@ -3413,7 +3465,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="4" t="s">
         <v>32</v>
@@ -3425,7 +3477,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="2" t="s">
         <v>9</v>
@@ -3437,7 +3489,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="4" t="s">
         <v>18</v>
@@ -3449,7 +3501,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="2" t="s">
         <v>36</v>
@@ -3461,7 +3513,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="4" t="s">
         <v>47</v>
@@ -3473,7 +3525,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="2" t="s">
         <v>42</v>
@@ -3485,7 +3537,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="4" t="s">
         <v>19</v>
@@ -3497,7 +3549,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="2" t="s">
         <v>44</v>
@@ -3509,7 +3561,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="4" t="s">
         <v>39</v>
@@ -3521,7 +3573,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="2" t="s">
         <v>5</v>
@@ -3533,7 +3585,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
       <c r="B202" s="4" t="s">
         <v>8</v>
@@ -3545,7 +3597,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="2" t="s">
         <v>10</v>
@@ -3557,7 +3609,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
       <c r="B204" s="4" t="s">
         <v>50</v>
@@ -3569,7 +3621,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="8" t="s">
         <v>46</v>
@@ -3581,7 +3633,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>0</v>
       </c>
@@ -3595,7 +3647,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>1</v>
       </c>
@@ -3609,7 +3661,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>2</v>
       </c>
@@ -3623,7 +3675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>3</v>
       </c>
@@ -3637,7 +3689,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>4</v>
       </c>
@@ -3651,7 +3703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>5</v>
       </c>
@@ -3665,7 +3717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>6</v>
       </c>
@@ -3679,7 +3731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>7</v>
       </c>
@@ -3693,7 +3745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>8</v>
       </c>
@@ -3707,7 +3759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>9</v>
       </c>
@@ -3721,7 +3773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>12</v>
       </c>
@@ -3735,7 +3787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>10</v>
       </c>
@@ -3749,7 +3801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>11</v>
       </c>
@@ -3763,7 +3815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>14</v>
       </c>
@@ -3777,7 +3829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>13</v>
       </c>
@@ -3791,7 +3843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="2" t="s">
         <v>21</v>
@@ -3803,7 +3855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="3"/>
       <c r="B222" s="4" t="s">
         <v>37</v>
@@ -3815,7 +3867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="2" t="s">
         <v>42</v>
@@ -3827,7 +3879,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="3"/>
       <c r="B224" s="4" t="s">
         <v>40</v>
@@ -3839,7 +3891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="2" t="s">
         <v>47</v>
@@ -3851,7 +3903,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="3"/>
       <c r="B226" s="4" t="s">
         <v>20</v>
@@ -3863,7 +3915,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="2" t="s">
         <v>11</v>
@@ -3875,7 +3927,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="3"/>
       <c r="B228" s="4" t="s">
         <v>44</v>
@@ -3887,7 +3939,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="2" t="s">
         <v>15</v>
@@ -3899,7 +3951,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="3"/>
       <c r="B230" s="4" t="s">
         <v>27</v>
@@ -3911,7 +3963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="2" t="s">
         <v>39</v>
@@ -3923,7 +3975,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="3"/>
       <c r="B232" s="4" t="s">
         <v>6</v>
@@ -3935,7 +3987,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="2" t="s">
         <v>3</v>
@@ -3947,7 +3999,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="3"/>
       <c r="B234" s="4" t="s">
         <v>48</v>
@@ -3959,7 +4011,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="2" t="s">
         <v>50</v>
@@ -3971,7 +4023,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="3"/>
       <c r="B236" s="4" t="s">
         <v>19</v>
@@ -3983,7 +4035,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="2" t="s">
         <v>32</v>
@@ -3995,7 +4047,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="3"/>
       <c r="B238" s="4" t="s">
         <v>46</v>
@@ -4007,7 +4059,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="2" t="s">
         <v>31</v>
@@ -4019,7 +4071,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="3"/>
       <c r="B240" s="4" t="s">
         <v>29</v>
@@ -4031,7 +4083,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="2" t="s">
         <v>16</v>
@@ -4043,7 +4095,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="3"/>
       <c r="B242" s="4" t="s">
         <v>33</v>
@@ -4055,7 +4107,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="2" t="s">
         <v>10</v>
@@ -4067,7 +4119,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="3"/>
       <c r="B244" s="4" t="s">
         <v>41</v>
@@ -4079,7 +4131,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="2" t="s">
         <v>36</v>
@@ -4091,7 +4143,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="3"/>
       <c r="B246" s="4" t="s">
         <v>13</v>
@@ -4103,7 +4155,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="2" t="s">
         <v>5</v>
@@ -4115,7 +4167,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="3"/>
       <c r="B248" s="7" t="s">
         <v>7</v>
@@ -4127,7 +4179,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>0</v>
       </c>
@@ -4141,7 +4193,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>1</v>
       </c>
@@ -4155,7 +4207,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>2</v>
       </c>
@@ -4169,7 +4221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>3</v>
       </c>
@@ -4183,7 +4235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>4</v>
       </c>
@@ -4197,7 +4249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>5</v>
       </c>
@@ -4211,7 +4263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>6</v>
       </c>
@@ -4225,7 +4277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>7</v>
       </c>
@@ -4239,7 +4291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>8</v>
       </c>
@@ -4253,7 +4305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>10</v>
       </c>
@@ -4267,7 +4319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>9</v>
       </c>
@@ -4281,7 +4333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>12</v>
       </c>
@@ -4295,7 +4347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>11</v>
       </c>
@@ -4309,7 +4361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>14</v>
       </c>
@@ -4323,7 +4375,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>13</v>
       </c>
@@ -4337,7 +4389,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="2" t="s">
         <v>35</v>
@@ -4349,7 +4401,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="3"/>
       <c r="B265" s="4" t="s">
         <v>28</v>
@@ -4361,7 +4413,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="2" t="s">
         <v>11</v>
@@ -4373,7 +4425,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="3"/>
       <c r="B267" s="4" t="s">
         <v>48</v>
@@ -4385,7 +4437,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="2" t="s">
         <v>47</v>
@@ -4397,7 +4449,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="3"/>
       <c r="B269" s="4" t="s">
         <v>42</v>
@@ -4409,7 +4461,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="2" t="s">
         <v>44</v>
@@ -4421,7 +4473,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="3"/>
       <c r="B271" s="4" t="s">
         <v>15</v>
@@ -4433,7 +4485,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="2" t="s">
         <v>22</v>
@@ -4445,7 +4497,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="3"/>
       <c r="B273" s="4" t="s">
         <v>3</v>
@@ -4457,7 +4509,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="2" t="s">
         <v>32</v>
@@ -4469,7 +4521,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="3"/>
       <c r="B275" s="4" t="s">
         <v>12</v>
@@ -4481,7 +4533,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="2" t="s">
         <v>46</v>
@@ -4493,7 +4545,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="3"/>
       <c r="B277" s="4" t="s">
         <v>7</v>
@@ -4505,7 +4557,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="2" t="s">
         <v>31</v>
@@ -4517,7 +4569,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="3"/>
       <c r="B279" s="4" t="s">
         <v>30</v>
@@ -4529,7 +4581,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="2" t="s">
         <v>34</v>
@@ -4541,7 +4593,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="3"/>
       <c r="B281" s="4" t="s">
         <v>18</v>
@@ -4553,7 +4605,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="2" t="s">
         <v>39</v>
@@ -4565,7 +4617,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="3"/>
       <c r="B283" s="4" t="s">
         <v>10</v>
@@ -4577,7 +4629,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="2" t="s">
         <v>13</v>
@@ -4589,7 +4641,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="3"/>
       <c r="B285" s="4" t="s">
         <v>29</v>
@@ -4601,7 +4653,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="2" t="s">
         <v>19</v>
@@ -4613,7 +4665,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="3"/>
       <c r="B287" s="4" t="s">
         <v>51</v>
@@ -4625,7 +4677,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="2" t="s">
         <v>50</v>
@@ -4637,7 +4689,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="3"/>
       <c r="B289" s="4" t="s">
         <v>52</v>
@@ -4649,7 +4701,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="8" t="s">
         <v>33</v>
@@ -4661,7 +4713,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
         <v>0</v>
       </c>
@@ -4675,7 +4727,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>1</v>
       </c>
@@ -4689,7 +4741,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
         <v>2</v>
       </c>
@@ -4703,7 +4755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>4</v>
       </c>
@@ -4717,7 +4769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
         <v>5</v>
       </c>
@@ -4731,7 +4783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>6</v>
       </c>
@@ -4745,7 +4797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
         <v>7</v>
       </c>
@@ -4759,7 +4811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>8</v>
       </c>
@@ -4773,7 +4825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
         <v>10</v>
       </c>
@@ -4787,7 +4839,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>11</v>
       </c>
@@ -4801,7 +4853,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="3">
         <v>9</v>
       </c>
@@ -4815,7 +4867,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>12</v>
       </c>
@@ -4829,7 +4881,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="3">
         <v>14</v>
       </c>
@@ -4843,7 +4895,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>13</v>
       </c>
@@ -4857,7 +4909,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="3"/>
       <c r="B305" s="4" t="s">
         <v>3</v>
@@ -4869,7 +4921,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="2" t="s">
         <v>22</v>
@@ -4881,7 +4933,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="3"/>
       <c r="B307" s="4" t="s">
         <v>11</v>
@@ -4893,7 +4945,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="2" t="s">
         <v>7</v>
@@ -4905,7 +4957,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="3"/>
       <c r="B309" s="4" t="s">
         <v>35</v>
@@ -4917,7 +4969,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="2" t="s">
         <v>40</v>
@@ -4929,7 +4981,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="3"/>
       <c r="B311" s="4" t="s">
         <v>28</v>
@@ -4941,7 +4993,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="2" t="s">
         <v>52</v>
@@ -4953,7 +5005,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="3"/>
       <c r="B313" s="4" t="s">
         <v>42</v>
@@ -4965,7 +5017,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="2" t="s">
         <v>44</v>
@@ -4977,7 +5029,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="3"/>
       <c r="B315" s="4" t="s">
         <v>47</v>
@@ -4989,7 +5041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="2" t="s">
         <v>48</v>
@@ -5001,7 +5053,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="3"/>
       <c r="B317" s="4" t="s">
         <v>10</v>
@@ -5013,7 +5065,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="2" t="s">
         <v>18</v>
@@ -5025,7 +5077,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="3"/>
       <c r="B319" s="4" t="s">
         <v>31</v>
@@ -5037,7 +5089,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="2" t="s">
         <v>33</v>
@@ -5049,7 +5101,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="3"/>
       <c r="B321" s="4" t="s">
         <v>30</v>
@@ -5061,7 +5113,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="2" t="s">
         <v>12</v>
@@ -5073,7 +5125,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="3"/>
       <c r="B323" s="4" t="s">
         <v>32</v>
@@ -5085,7 +5137,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="2" t="s">
         <v>15</v>
@@ -5097,7 +5149,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="3"/>
       <c r="B325" s="4" t="s">
         <v>19</v>
@@ -5109,7 +5161,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="2" t="s">
         <v>13</v>
@@ -5121,7 +5173,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="3"/>
       <c r="B327" s="4" t="s">
         <v>34</v>
@@ -5133,7 +5185,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="2" t="s">
         <v>39</v>
@@ -5145,7 +5197,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="3"/>
       <c r="B329" s="7" t="s">
         <v>51</v>
@@ -5157,7 +5209,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="3">
         <v>0</v>
       </c>
@@ -5171,7 +5223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>1</v>
       </c>
@@ -5185,7 +5237,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="3">
         <v>2</v>
       </c>
@@ -5199,7 +5251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>3</v>
       </c>
@@ -5213,7 +5265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="3">
         <v>4</v>
       </c>
@@ -5227,7 +5279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>5</v>
       </c>
@@ -5241,7 +5293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
         <v>6</v>
       </c>
@@ -5255,7 +5307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>8</v>
       </c>
@@ -5269,7 +5321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="3">
         <v>7</v>
       </c>
@@ -5283,7 +5335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>11</v>
       </c>
@@ -5297,7 +5349,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
         <v>10</v>
       </c>
@@ -5311,7 +5363,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>9</v>
       </c>
@@ -5325,7 +5377,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
         <v>12</v>
       </c>
@@ -5339,7 +5391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>13</v>
       </c>
@@ -5353,7 +5405,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="3">
         <v>14</v>
       </c>
@@ -5367,7 +5419,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="2" t="s">
         <v>28</v>
@@ -5379,7 +5431,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="3"/>
       <c r="B346" s="4" t="s">
         <v>24</v>
@@ -5391,7 +5443,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="2" t="s">
         <v>40</v>
@@ -5403,7 +5455,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="3"/>
       <c r="B348" s="4" t="s">
         <v>48</v>
@@ -5415,7 +5467,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="2" t="s">
         <v>13</v>
@@ -5427,7 +5479,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="3"/>
       <c r="B350" s="4" t="s">
         <v>52</v>
@@ -5439,7 +5491,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="2" t="s">
         <v>8</v>
@@ -5451,7 +5503,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="3"/>
       <c r="B352" s="4" t="s">
         <v>32</v>
@@ -5463,7 +5515,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="2" t="s">
         <v>20</v>
@@ -5475,7 +5527,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="3"/>
       <c r="B354" s="4" t="s">
         <v>27</v>
@@ -5487,7 +5539,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
       <c r="B355" s="2" t="s">
         <v>14</v>
@@ -5499,7 +5551,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="3"/>
       <c r="B356" s="4" t="s">
         <v>30</v>
@@ -5511,7 +5563,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="2" t="s">
         <v>33</v>
@@ -5523,7 +5575,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="3"/>
       <c r="B358" s="4" t="s">
         <v>42</v>
@@ -5535,7 +5587,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="B359" s="2" t="s">
         <v>44</v>
@@ -5547,7 +5599,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="3"/>
       <c r="B360" s="4" t="s">
         <v>35</v>
@@ -5559,7 +5611,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="2" t="s">
         <v>26</v>
@@ -5571,7 +5623,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="3"/>
       <c r="B362" s="4" t="s">
         <v>16</v>
@@ -5583,7 +5635,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="2" t="s">
         <v>41</v>
@@ -5595,7 +5647,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="3"/>
       <c r="B364" s="4" t="s">
         <v>15</v>
@@ -5607,7 +5659,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="2" t="s">
         <v>19</v>
@@ -5619,7 +5671,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="3"/>
       <c r="B366" s="4" t="s">
         <v>7</v>
@@ -5631,7 +5683,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="2" t="s">
         <v>51</v>
@@ -5643,7 +5695,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="3"/>
       <c r="B368" s="4" t="s">
         <v>31</v>
@@ -5655,7 +5707,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="B369" s="2" t="s">
         <v>12</v>
@@ -5667,7 +5719,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="3"/>
       <c r="B370" s="4" t="s">
         <v>34</v>
@@ -5679,7 +5731,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
       <c r="B371" s="2" t="s">
         <v>10</v>
@@ -5691,7 +5743,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="3"/>
       <c r="B372" s="7" t="s">
         <v>47</v>
@@ -5703,7 +5755,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="3">
         <v>0</v>
       </c>
@@ -5717,7 +5769,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>1</v>
       </c>
@@ -5731,7 +5783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="3">
         <v>2</v>
       </c>
@@ -5745,7 +5797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>3</v>
       </c>
@@ -5759,7 +5811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="3">
         <v>4</v>
       </c>
@@ -5773,7 +5825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>5</v>
       </c>
@@ -5787,7 +5839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="3">
         <v>6</v>
       </c>
@@ -5801,7 +5853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>7</v>
       </c>
@@ -5815,7 +5867,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="3">
         <v>8</v>
       </c>
@@ -5829,7 +5881,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>9</v>
       </c>
@@ -5843,7 +5895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="3">
         <v>10</v>
       </c>
@@ -5857,7 +5909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>11</v>
       </c>
@@ -5871,7 +5923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="3">
         <v>13</v>
       </c>
@@ -5885,7 +5937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>12</v>
       </c>
@@ -5899,7 +5951,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="3">
         <v>14</v>
       </c>
@@ -5913,7 +5965,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
       <c r="B388" s="2" t="s">
         <v>37</v>
@@ -5925,7 +5977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="3"/>
       <c r="B389" s="4" t="s">
         <v>44</v>
@@ -5937,7 +5989,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="1"/>
       <c r="B390" s="2" t="s">
         <v>5</v>
@@ -5949,7 +6001,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="3"/>
       <c r="B391" s="4" t="s">
         <v>48</v>
@@ -5961,7 +6013,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="1"/>
       <c r="B392" s="2" t="s">
         <v>33</v>
@@ -5973,7 +6025,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="3"/>
       <c r="B393" s="4" t="s">
         <v>32</v>
@@ -5985,7 +6037,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
       <c r="B394" s="2" t="s">
         <v>28</v>
@@ -5997,7 +6049,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="3"/>
       <c r="B395" s="4" t="s">
         <v>23</v>
@@ -6009,7 +6061,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
       <c r="B396" s="2" t="s">
         <v>16</v>
@@ -6021,7 +6073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="3"/>
       <c r="B397" s="4" t="s">
         <v>9</v>
@@ -6033,7 +6085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
       <c r="B398" s="2" t="s">
         <v>29</v>
@@ -6045,7 +6097,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="3"/>
       <c r="B399" s="4" t="s">
         <v>13</v>
@@ -6057,7 +6109,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
       <c r="B400" s="2" t="s">
         <v>27</v>
@@ -6069,7 +6121,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="3"/>
       <c r="B401" s="4" t="s">
         <v>36</v>
@@ -6081,7 +6133,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
       <c r="B402" s="2" t="s">
         <v>12</v>
@@ -6093,7 +6145,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="3"/>
       <c r="B403" s="4" t="s">
         <v>30</v>
@@ -6105,7 +6157,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
       <c r="B404" s="2" t="s">
         <v>7</v>
@@ -6117,7 +6169,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="3"/>
       <c r="B405" s="4" t="s">
         <v>42</v>
@@ -6129,7 +6181,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
       <c r="B406" s="2" t="s">
         <v>41</v>
@@ -6141,7 +6193,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="3"/>
       <c r="B407" s="4" t="s">
         <v>19</v>
@@ -6153,7 +6205,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
       <c r="B408" s="2" t="s">
         <v>31</v>
@@ -6165,7 +6217,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="3"/>
       <c r="B409" s="4" t="s">
         <v>40</v>
@@ -6177,7 +6229,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
       <c r="B410" s="2" t="s">
         <v>51</v>
@@ -6189,7 +6241,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="3"/>
       <c r="B411" s="4" t="s">
         <v>47</v>
@@ -6201,7 +6253,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
       <c r="B412" s="2" t="s">
         <v>15</v>
@@ -6213,7 +6265,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="3"/>
       <c r="B413" s="4" t="s">
         <v>34</v>
@@ -6225,7 +6277,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
       <c r="B414" s="8" t="s">
         <v>8</v>
@@ -6237,7 +6289,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="3">
         <v>0</v>
       </c>
@@ -6251,7 +6303,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>1</v>
       </c>
@@ -6265,7 +6317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="3">
         <v>2</v>
       </c>
@@ -6279,7 +6331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>3</v>
       </c>
@@ -6293,7 +6345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="3">
         <v>4</v>
       </c>
@@ -6307,7 +6359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>5</v>
       </c>
@@ -6321,7 +6373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="3">
         <v>8</v>
       </c>
@@ -6335,7 +6387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>7</v>
       </c>
@@ -6349,7 +6401,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="3">
         <v>6</v>
       </c>
@@ -6363,7 +6415,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>9</v>
       </c>
@@ -6377,7 +6429,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="3">
         <v>10</v>
       </c>
@@ -6391,7 +6443,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>11</v>
       </c>
@@ -6405,7 +6457,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="3">
         <v>13</v>
       </c>
@@ -6419,7 +6471,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>12</v>
       </c>
@@ -6433,7 +6485,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="3">
         <v>14</v>
       </c>
@@ -6447,7 +6499,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
       <c r="B430" s="2" t="s">
         <v>16</v>
@@ -6459,7 +6511,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="3"/>
       <c r="B431" s="4" t="s">
         <v>29</v>
@@ -6471,7 +6523,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
       <c r="B432" s="2" t="s">
         <v>48</v>
@@ -6483,7 +6535,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="3"/>
       <c r="B433" s="4" t="s">
         <v>7</v>
@@ -6495,7 +6547,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
       <c r="B434" s="2" t="s">
         <v>22</v>
@@ -6507,7 +6559,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="3"/>
       <c r="B435" s="4" t="s">
         <v>20</v>
@@ -6519,7 +6571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
       <c r="B436" s="2" t="s">
         <v>35</v>
@@ -6531,7 +6583,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="3"/>
       <c r="B437" s="4" t="s">
         <v>5</v>
@@ -6543,7 +6595,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
       <c r="B438" s="2" t="s">
         <v>32</v>
@@ -6555,7 +6607,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="3"/>
       <c r="B439" s="4" t="s">
         <v>9</v>
@@ -6567,7 +6619,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="1"/>
       <c r="B440" s="2" t="s">
         <v>27</v>
@@ -6579,7 +6631,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="3"/>
       <c r="B441" s="4" t="s">
         <v>14</v>
@@ -6591,7 +6643,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="1"/>
       <c r="B442" s="2" t="s">
         <v>36</v>
@@ -6603,7 +6655,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="3"/>
       <c r="B443" s="4" t="s">
         <v>42</v>
@@ -6615,7 +6667,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="1"/>
       <c r="B444" s="2" t="s">
         <v>8</v>
@@ -6627,7 +6679,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="3"/>
       <c r="B445" s="4" t="s">
         <v>13</v>
@@ -6639,7 +6691,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="1"/>
       <c r="B446" s="2" t="s">
         <v>12</v>
@@ -6651,7 +6703,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="3"/>
       <c r="B447" s="4" t="s">
         <v>30</v>
@@ -6663,7 +6715,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
       <c r="B448" s="2" t="s">
         <v>44</v>
@@ -6675,7 +6727,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="3"/>
       <c r="B449" s="4" t="s">
         <v>15</v>
@@ -6687,7 +6739,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="1"/>
       <c r="B450" s="2" t="s">
         <v>10</v>
@@ -6699,7 +6751,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="3"/>
       <c r="B451" s="4" t="s">
         <v>52</v>
@@ -6711,7 +6763,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
       <c r="B452" s="2" t="s">
         <v>34</v>
@@ -6723,7 +6775,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="3"/>
       <c r="B453" s="7" t="s">
         <v>33</v>
@@ -6735,7 +6787,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="3">
         <v>0</v>
       </c>
@@ -6749,7 +6801,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>1</v>
       </c>
@@ -6763,7 +6815,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="3">
         <v>3</v>
       </c>
@@ -6777,7 +6829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>2</v>
       </c>
@@ -6791,7 +6843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="3">
         <v>4</v>
       </c>
@@ -6805,7 +6857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>6</v>
       </c>
@@ -6819,7 +6871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="3">
         <v>5</v>
       </c>
@@ -6833,7 +6885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>7</v>
       </c>
@@ -6847,7 +6899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="3">
         <v>9</v>
       </c>
@@ -6861,7 +6913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>8</v>
       </c>
@@ -6875,7 +6927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="3">
         <v>10</v>
       </c>
@@ -6889,7 +6941,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>12</v>
       </c>
@@ -6903,7 +6955,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="3">
         <v>11</v>
       </c>
@@ -6917,7 +6969,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>13</v>
       </c>
@@ -6931,7 +6983,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="3">
         <v>14</v>
       </c>
@@ -6945,7 +6997,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
       <c r="B469" s="2" t="s">
         <v>8</v>
@@ -6957,7 +7009,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="3"/>
       <c r="B470" s="4" t="s">
         <v>19</v>
@@ -6969,7 +7021,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
       <c r="B471" s="2" t="s">
         <v>14</v>
@@ -6981,7 +7033,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="3"/>
       <c r="B472" s="4" t="s">
         <v>27</v>
@@ -6993,7 +7045,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="1"/>
       <c r="B473" s="2" t="s">
         <v>30</v>
@@ -7005,7 +7057,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="3"/>
       <c r="B474" s="4" t="s">
         <v>39</v>
@@ -7017,7 +7069,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
       <c r="B475" s="2" t="s">
         <v>20</v>
@@ -7029,7 +7081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="3"/>
       <c r="B476" s="4" t="s">
         <v>31</v>
@@ -7041,7 +7093,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
       <c r="B477" s="2" t="s">
         <v>3</v>
@@ -7053,7 +7105,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="3"/>
       <c r="B478" s="4" t="s">
         <v>36</v>
@@ -7065,7 +7117,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
       <c r="B479" s="2" t="s">
         <v>16</v>
@@ -7077,7 +7129,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="3"/>
       <c r="B480" s="4" t="s">
         <v>41</v>
@@ -7089,7 +7141,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="1"/>
       <c r="B481" s="2" t="s">
         <v>13</v>
@@ -7101,7 +7153,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="3"/>
       <c r="B482" s="4" t="s">
         <v>9</v>
@@ -7113,7 +7165,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
       <c r="B483" s="2" t="s">
         <v>12</v>
@@ -7125,7 +7177,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="3"/>
       <c r="B484" s="4" t="s">
         <v>5</v>
@@ -7137,7 +7189,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="1"/>
       <c r="B485" s="2" t="s">
         <v>44</v>
@@ -7149,7 +7201,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="3"/>
       <c r="B486" s="4" t="s">
         <v>48</v>
@@ -7161,7 +7213,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="1"/>
       <c r="B487" s="2" t="s">
         <v>40</v>
@@ -7173,7 +7225,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="3"/>
       <c r="B488" s="4" t="s">
         <v>32</v>
@@ -7185,7 +7237,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="1"/>
       <c r="B489" s="2" t="s">
         <v>33</v>
@@ -7197,7 +7249,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="3"/>
       <c r="B490" s="7" t="s">
         <v>47</v>
@@ -7209,7 +7261,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="3">
         <v>0</v>
       </c>
@@ -7220,10 +7272,10 @@
         <v>532015</v>
       </c>
       <c r="D491" s="4">
-        <v>2.0772222222222232</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.0772222222222201</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>1</v>
       </c>
@@ -7234,10 +7286,10 @@
         <v>462015</v>
       </c>
       <c r="D492" s="2">
-        <v>4.1611111111111114</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.1611111111111097</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="3">
         <v>2</v>
       </c>
@@ -7248,10 +7300,10 @@
         <v>342015</v>
       </c>
       <c r="D493" s="4">
-        <v>5.4444444444444446</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.4444444444444402</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>3</v>
       </c>
@@ -7265,7 +7317,7 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="3">
         <v>4</v>
       </c>
@@ -7276,10 +7328,10 @@
         <v>132015</v>
       </c>
       <c r="D495" s="4">
-        <v>11.444444444444439</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11.4444444444444</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>5</v>
       </c>
@@ -7290,10 +7342,10 @@
         <v>242015</v>
       </c>
       <c r="D496" s="2">
-        <v>22.888888888888889</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22.8888888888889</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="3">
         <v>6</v>
       </c>
@@ -7304,10 +7356,10 @@
         <v>482015</v>
       </c>
       <c r="D497" s="4">
-        <v>32.722222222222221</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32.7222222222222</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>7</v>
       </c>
@@ -7318,10 +7370,10 @@
         <v>422015</v>
       </c>
       <c r="D498" s="2">
-        <v>40.352941176470587</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40.352941176470601</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="3">
         <v>8</v>
       </c>
@@ -7332,10 +7384,10 @@
         <v>352015</v>
       </c>
       <c r="D499" s="4">
-        <v>55.235294117647058</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55.235294117647101</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>9</v>
       </c>
@@ -7349,7 +7401,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" s="3">
         <v>10</v>
       </c>
@@ -7363,7 +7415,7 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>11</v>
       </c>
@@ -7377,7 +7429,7 @@
         <v>69.352941176470594</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="3">
         <v>12</v>
       </c>
@@ -7388,10 +7440,10 @@
         <v>512015</v>
       </c>
       <c r="D503" s="4">
-        <v>81.277777777777771</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81.2777777777778</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>13</v>
       </c>
@@ -7402,10 +7454,10 @@
         <v>272015</v>
       </c>
       <c r="D504" s="2">
-        <v>104.3333333333333</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104.333333333333</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" s="3">
         <v>14</v>
       </c>
@@ -7416,10 +7468,10 @@
         <v>582015</v>
       </c>
       <c r="D505" s="4">
-        <v>114.6666666666667</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114.666666666667</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>17</v>
       </c>
@@ -7430,10 +7482,10 @@
         <v>122015</v>
       </c>
       <c r="D506" s="2">
-        <v>135.7222222222222</v>
-      </c>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+        <v>135.722222222222</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" s="3">
         <v>15</v>
       </c>
@@ -7444,10 +7496,10 @@
         <v>292015</v>
       </c>
       <c r="D507" s="4">
-        <v>138.7647058823529</v>
-      </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+        <v>138.76470588235301</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>16</v>
       </c>
@@ -7458,10 +7510,10 @@
         <v>452015</v>
       </c>
       <c r="D508" s="2">
-        <v>154.70588235294119</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154.70588235294099</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" s="3">
         <v>20</v>
       </c>
@@ -7472,10 +7524,10 @@
         <v>302015</v>
       </c>
       <c r="D509" s="4">
-        <v>165.61111111111109</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+        <v>165.611111111111</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>19</v>
       </c>
@@ -7486,10 +7538,10 @@
         <v>212015</v>
       </c>
       <c r="D510" s="2">
-        <v>170.83333333333329</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170.833333333333</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" s="3">
         <v>18</v>
       </c>
@@ -7500,10 +7552,10 @@
         <v>102015</v>
       </c>
       <c r="D511" s="4">
-        <v>177.05555555555549</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+        <v>177.055555555555</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>21</v>
       </c>
@@ -7514,10 +7566,10 @@
         <v>262015</v>
       </c>
       <c r="D512" s="2">
-        <v>182.2777777777778</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+        <v>182.277777777778</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" s="3">
         <v>22</v>
       </c>
@@ -7528,10 +7580,10 @@
         <v>362015</v>
       </c>
       <c r="D513" s="4">
-        <v>200.66666666666671</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200.666666666667</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>23</v>
       </c>
@@ -7542,10 +7594,10 @@
         <v>432015</v>
       </c>
       <c r="D514" s="2">
-        <v>214.35294117647061</v>
-      </c>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+        <v>214.35294117647101</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" s="3">
         <v>24</v>
       </c>
@@ -7556,10 +7608,10 @@
         <v>142015</v>
       </c>
       <c r="D515" s="4">
-        <v>218.7222222222222</v>
-      </c>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+        <v>218.722222222222</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>25</v>
       </c>
@@ -7570,10 +7622,10 @@
         <v>402015</v>
       </c>
       <c r="D516" s="2">
-        <v>224.2777777777778</v>
-      </c>
-    </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+        <v>224.277777777778</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" s="3">
         <v>26</v>
       </c>
@@ -7584,10 +7636,10 @@
         <v>282015</v>
       </c>
       <c r="D517" s="4">
-        <v>243.29411764705881</v>
-      </c>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243.29411764705901</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" s="1"/>
       <c r="B518" s="2" t="s">
         <v>48</v>
@@ -7599,7 +7651,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" s="3"/>
       <c r="B519" s="4" t="s">
         <v>19</v>
@@ -7611,7 +7663,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" s="1"/>
       <c r="B520" s="2" t="s">
         <v>33</v>
@@ -7623,7 +7675,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" s="3"/>
       <c r="B521" s="4" t="s">
         <v>31</v>
@@ -7635,7 +7687,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" s="1"/>
       <c r="B522" s="2" t="s">
         <v>11</v>
@@ -7647,7 +7699,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" s="3"/>
       <c r="B523" s="4" t="s">
         <v>18</v>
@@ -7659,7 +7711,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" s="1"/>
       <c r="B524" s="2" t="s">
         <v>41</v>
@@ -7671,7 +7723,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" s="3"/>
       <c r="B525" s="4" t="s">
         <v>16</v>
@@ -7683,7 +7735,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" s="1"/>
       <c r="B526" s="2" t="s">
         <v>46</v>
@@ -7695,7 +7747,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" s="3"/>
       <c r="B527" s="4" t="s">
         <v>20</v>
@@ -7707,7 +7759,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
       <c r="B528" s="2" t="s">
         <v>30</v>
@@ -7719,7 +7771,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" s="3"/>
       <c r="B529" s="4" t="s">
         <v>27</v>
@@ -7731,7 +7783,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" s="1"/>
       <c r="B530" s="8" t="s">
         <v>47</v>
@@ -7743,7 +7795,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" s="3">
         <v>0</v>
       </c>
@@ -7757,7 +7809,7 @@
         <v>1.6825000000000001</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>1</v>
       </c>
@@ -7771,7 +7823,7 @@
         <v>3.8605</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" s="3">
         <v>2</v>
       </c>
@@ -7785,7 +7837,7 @@
         <v>14.4375</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>3</v>
       </c>
@@ -7799,7 +7851,7 @@
         <v>21.65</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="3">
         <v>4</v>
       </c>
@@ -7813,7 +7865,7 @@
         <v>24.95</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>5</v>
       </c>
@@ -7827,7 +7879,7 @@
         <v>41.85</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="3">
         <v>6</v>
       </c>
@@ -7841,7 +7893,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>8</v>
       </c>
@@ -7855,7 +7907,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" s="3">
         <v>7</v>
       </c>
@@ -7869,7 +7921,7 @@
         <v>76.95</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>9</v>
       </c>
@@ -7883,7 +7935,7 @@
         <v>86.45</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" s="3">
         <v>10</v>
       </c>
@@ -7897,7 +7949,7 @@
         <v>86.65</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>11</v>
       </c>
@@ -7911,7 +7963,7 @@
         <v>96.55</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" s="3">
         <v>12</v>
       </c>
@@ -7925,7 +7977,7 @@
         <v>104.75</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>13</v>
       </c>
@@ -7939,7 +7991,7 @@
         <v>108.35</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" s="3">
         <v>14</v>
       </c>
@@ -7953,7 +8005,7 @@
         <v>114.75</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>15</v>
       </c>
@@ -7967,7 +8019,7 @@
         <v>123.35</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" s="3">
         <v>16</v>
       </c>
@@ -7981,7 +8033,7 @@
         <v>127.65</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>17</v>
       </c>
@@ -7995,7 +8047,7 @@
         <v>161.65</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" s="3">
         <v>18</v>
       </c>
@@ -8009,7 +8061,7 @@
         <v>181.05</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>19</v>
       </c>
@@ -8023,7 +8075,7 @@
         <v>191.65</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" s="3">
         <v>20</v>
       </c>
@@ -8037,7 +8089,7 @@
         <v>232.9</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>22</v>
       </c>
@@ -8051,7 +8103,7 @@
         <v>273.55</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" s="3">
         <v>21</v>
       </c>
@@ -8065,7 +8117,7 @@
         <v>274.64999999999998</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>25</v>
       </c>
@@ -8079,7 +8131,7 @@
         <v>283.60000000000002</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" s="3">
         <v>23</v>
       </c>
@@ -8093,7 +8145,7 @@
         <v>284.64999999999998</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>24</v>
       </c>
@@ -8107,7 +8159,7 @@
         <v>299.64999999999998</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" s="3"/>
       <c r="B557" s="4" t="s">
         <v>27</v>
@@ -8119,7 +8171,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" s="1"/>
       <c r="B558" s="2" t="s">
         <v>48</v>
@@ -8131,7 +8183,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" s="3"/>
       <c r="B559" s="4" t="s">
         <v>41</v>
@@ -8143,7 +8195,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" s="1"/>
       <c r="B560" s="2" t="s">
         <v>5</v>
@@ -8155,7 +8207,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" s="3"/>
       <c r="B561" s="4" t="s">
         <v>36</v>
@@ -8167,7 +8219,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" s="1"/>
       <c r="B562" s="2" t="s">
         <v>20</v>
@@ -8179,7 +8231,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" s="3"/>
       <c r="B563" s="4" t="s">
         <v>30</v>
@@ -8191,7 +8243,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" s="1"/>
       <c r="B564" s="2" t="s">
         <v>31</v>
@@ -8203,7 +8255,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" s="3"/>
       <c r="B565" s="4" t="s">
         <v>18</v>
@@ -8215,7 +8267,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" s="1"/>
       <c r="B566" s="2" t="s">
         <v>13</v>
@@ -8227,7 +8279,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" s="3"/>
       <c r="B567" s="4" t="s">
         <v>11</v>
@@ -8239,7 +8291,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" s="1"/>
       <c r="B568" s="2" t="s">
         <v>21</v>
@@ -8251,7 +8303,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" s="3"/>
       <c r="B569" s="4" t="s">
         <v>44</v>
@@ -8263,7 +8315,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" s="1"/>
       <c r="B570" s="2" t="s">
         <v>23</v>
@@ -8275,7 +8327,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" s="3"/>
       <c r="B571" s="4" t="s">
         <v>33</v>
@@ -8287,7 +8339,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" s="1"/>
       <c r="B572" s="8" t="s">
         <v>24</v>
@@ -8299,7 +8351,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" s="3">
         <v>0</v>
       </c>
@@ -8310,10 +8362,10 @@
         <v>192017</v>
       </c>
       <c r="D573" s="4">
-        <v>2.707777777777777</v>
-      </c>
-    </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.7077777777777801</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>1</v>
       </c>
@@ -8324,10 +8376,10 @@
         <v>442017</v>
       </c>
       <c r="D574" s="2">
-        <v>2.757222222222222</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.7572222222222198</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" s="3">
         <v>2</v>
       </c>
@@ -8338,10 +8390,10 @@
         <v>342017</v>
       </c>
       <c r="D575" s="4">
-        <v>6.9794444444444439</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.9794444444444403</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>3</v>
       </c>
@@ -8352,10 +8404,10 @@
         <v>172017</v>
       </c>
       <c r="D576" s="2">
-        <v>8.4444444444444446</v>
-      </c>
-    </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.4444444444444393</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" s="3">
         <v>4</v>
       </c>
@@ -8366,10 +8418,10 @@
         <v>452017</v>
       </c>
       <c r="D577" s="4">
-        <v>19.777777777777779</v>
-      </c>
-    </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19.7777777777778</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>5</v>
       </c>
@@ -8380,10 +8432,10 @@
         <v>532017</v>
       </c>
       <c r="D578" s="2">
-        <v>23.777777777777779</v>
-      </c>
-    </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23.7777777777778</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" s="3">
         <v>6</v>
       </c>
@@ -8394,10 +8446,10 @@
         <v>202017</v>
       </c>
       <c r="D579" s="4">
-        <v>42.444444444444443</v>
-      </c>
-    </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42.4444444444444</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>7</v>
       </c>
@@ -8408,10 +8460,10 @@
         <v>582017</v>
       </c>
       <c r="D580" s="2">
-        <v>49.277777777777779</v>
-      </c>
-    </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49.2777777777778</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" s="3">
         <v>8</v>
       </c>
@@ -8422,10 +8474,10 @@
         <v>382017</v>
       </c>
       <c r="D581" s="4">
-        <v>50.555555555555557</v>
-      </c>
-    </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50.5555555555556</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>9</v>
       </c>
@@ -8436,10 +8488,10 @@
         <v>262017</v>
       </c>
       <c r="D582" s="2">
-        <v>117.1111111111111</v>
-      </c>
-    </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117.111111111111</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" s="3">
         <v>11</v>
       </c>
@@ -8450,10 +8502,10 @@
         <v>422017</v>
       </c>
       <c r="D583" s="4">
-        <v>122.8333333333333</v>
-      </c>
-    </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+        <v>122.833333333333</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>10</v>
       </c>
@@ -8464,10 +8516,10 @@
         <v>122017</v>
       </c>
       <c r="D584" s="2">
-        <v>126.7777777777778</v>
-      </c>
-    </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126.777777777778</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" s="3">
         <v>12</v>
       </c>
@@ -8478,10 +8530,10 @@
         <v>552017</v>
       </c>
       <c r="D585" s="4">
-        <v>145.88888888888891</v>
-      </c>
-    </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145.888888888889</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>13</v>
       </c>
@@ -8492,10 +8544,10 @@
         <v>132017</v>
       </c>
       <c r="D586" s="2">
-        <v>180.55555555555549</v>
-      </c>
-    </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180.555555555555</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" s="3">
         <v>15</v>
       </c>
@@ -8509,7 +8561,7 @@
         <v>192.5</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>14</v>
       </c>
@@ -8520,10 +8572,10 @@
         <v>232017</v>
       </c>
       <c r="D588" s="2">
-        <v>199.9411764705882</v>
-      </c>
-    </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199.941176470588</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" s="3">
         <v>16</v>
       </c>
@@ -8534,10 +8586,10 @@
         <v>302017</v>
       </c>
       <c r="D589" s="4">
-        <v>216.7222222222222</v>
-      </c>
-    </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+        <v>216.722222222222</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>17</v>
       </c>
@@ -8548,10 +8600,10 @@
         <v>282017</v>
       </c>
       <c r="D590" s="2">
-        <v>217.7777777777778</v>
-      </c>
-    </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+        <v>217.777777777778</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" s="3">
         <v>18</v>
       </c>
@@ -8562,10 +8614,10 @@
         <v>432017</v>
       </c>
       <c r="D591" s="4">
-        <v>253.05555555555549</v>
-      </c>
-    </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+        <v>253.055555555555</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>19</v>
       </c>
@@ -8576,10 +8628,10 @@
         <v>292017</v>
       </c>
       <c r="D592" s="2">
-        <v>259.16666666666669</v>
-      </c>
-    </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+        <v>259.16666666666703</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" s="3">
         <v>20</v>
       </c>
@@ -8590,10 +8642,10 @@
         <v>142017</v>
       </c>
       <c r="D593" s="4">
-        <v>261.94444444444451</v>
-      </c>
-    </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261.94444444444503</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>22</v>
       </c>
@@ -8604,10 +8656,10 @@
         <v>212017</v>
       </c>
       <c r="D594" s="2">
-        <v>283.05555555555549</v>
-      </c>
-    </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+        <v>283.05555555555497</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" s="3">
         <v>21</v>
       </c>
@@ -8618,10 +8670,10 @@
         <v>162017</v>
       </c>
       <c r="D595" s="4">
-        <v>289.72222222222217</v>
-      </c>
-    </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+        <v>289.722222222222</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>23</v>
       </c>
@@ -8632,10 +8684,10 @@
         <v>572017</v>
       </c>
       <c r="D596" s="2">
-        <v>334.16666666666669</v>
-      </c>
-    </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+        <v>334.16666666666703</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" s="3">
         <v>24</v>
       </c>
@@ -8646,10 +8698,10 @@
         <v>332017</v>
       </c>
       <c r="D597" s="4">
-        <v>361.94444444444451</v>
-      </c>
-    </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+        <v>361.94444444444503</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>25</v>
       </c>
@@ -8660,10 +8712,10 @@
         <v>522017</v>
       </c>
       <c r="D598" s="2">
-        <v>436.94444444444451</v>
-      </c>
-    </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+        <v>436.94444444444503</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" s="3"/>
       <c r="B599" s="4" t="s">
         <v>40</v>
@@ -8675,7 +8727,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" s="1"/>
       <c r="B600" s="2" t="s">
         <v>44</v>
@@ -8687,7 +8739,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" s="3"/>
       <c r="B601" s="4" t="s">
         <v>36</v>
@@ -8699,7 +8751,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" s="1"/>
       <c r="B602" s="2" t="s">
         <v>27</v>
@@ -8711,7 +8763,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" s="3"/>
       <c r="B603" s="4" t="s">
         <v>20</v>
@@ -8723,7 +8775,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" s="1"/>
       <c r="B604" s="2" t="s">
         <v>46</v>
@@ -8735,7 +8787,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" s="3"/>
       <c r="B605" s="4" t="s">
         <v>13</v>
@@ -8747,7 +8799,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" s="1"/>
       <c r="B606" s="2" t="s">
         <v>12</v>
@@ -8759,7 +8811,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" s="3"/>
       <c r="B607" s="4" t="s">
         <v>52</v>
@@ -8771,7 +8823,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" s="1"/>
       <c r="B608" s="2" t="s">
         <v>33</v>
@@ -8783,7 +8835,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" s="3"/>
       <c r="B609" s="4" t="s">
         <v>16</v>
@@ -8795,7 +8847,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" s="1"/>
       <c r="B610" s="2" t="s">
         <v>18</v>
@@ -8807,7 +8859,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" s="3"/>
       <c r="B611" s="4" t="s">
         <v>41</v>
@@ -8819,7 +8871,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" s="1"/>
       <c r="B612" s="2" t="s">
         <v>30</v>
@@ -8831,7 +8883,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" s="3"/>
       <c r="B613" s="4" t="s">
         <v>32</v>
@@ -8843,7 +8895,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" s="1"/>
       <c r="B614" s="8" t="s">
         <v>5</v>
@@ -8855,7 +8907,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" s="3">
         <v>0</v>
       </c>
@@ -8866,10 +8918,10 @@
         <v>212018</v>
       </c>
       <c r="D615" s="4">
-        <v>2.2216666666666671</v>
-      </c>
-    </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.2216666666666698</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>1</v>
       </c>
@@ -8880,10 +8932,10 @@
         <v>332018</v>
       </c>
       <c r="D616" s="2">
-        <v>3.3805555555555551</v>
-      </c>
-    </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.38055555555556</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" s="3">
         <v>2</v>
       </c>
@@ -8894,10 +8946,10 @@
         <v>282018</v>
       </c>
       <c r="D617" s="4">
-        <v>9.3833333333333329</v>
-      </c>
-    </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.3833333333333293</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>3</v>
       </c>
@@ -8908,10 +8960,10 @@
         <v>322018</v>
       </c>
       <c r="D618" s="2">
-        <v>14.66666666666667</v>
-      </c>
-    </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14.6666666666667</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" s="3">
         <v>4</v>
       </c>
@@ -8925,7 +8977,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>5</v>
       </c>
@@ -8936,10 +8988,10 @@
         <v>532018</v>
       </c>
       <c r="D620" s="2">
-        <v>36.166666666666657</v>
-      </c>
-    </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36.1666666666667</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" s="3">
         <v>6</v>
       </c>
@@ -8950,10 +9002,10 @@
         <v>362018</v>
       </c>
       <c r="D621" s="4">
-        <v>41.944444444444443</v>
-      </c>
-    </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41.9444444444444</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>7</v>
       </c>
@@ -8964,10 +9016,10 @@
         <v>582018</v>
       </c>
       <c r="D622" s="2">
-        <v>47.388888888888893</v>
-      </c>
-    </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47.3888888888889</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" s="3">
         <v>8</v>
       </c>
@@ -8978,10 +9030,10 @@
         <v>422018</v>
       </c>
       <c r="D623" s="4">
-        <v>56.222222222222221</v>
-      </c>
-    </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56.2222222222222</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>9</v>
       </c>
@@ -8992,10 +9044,10 @@
         <v>262018</v>
       </c>
       <c r="D624" s="2">
-        <v>69.333333333333329</v>
-      </c>
-    </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69.3333333333333</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" s="3">
         <v>11</v>
       </c>
@@ -9006,10 +9058,10 @@
         <v>132018</v>
       </c>
       <c r="D625" s="4">
-        <v>78.333333333333329</v>
-      </c>
-    </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78.3333333333333</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>10</v>
       </c>
@@ -9020,10 +9072,10 @@
         <v>342018</v>
       </c>
       <c r="D626" s="2">
-        <v>85.388888888888886</v>
-      </c>
-    </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85.3888888888889</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" s="3">
         <v>12</v>
       </c>
@@ -9034,10 +9086,10 @@
         <v>252018</v>
       </c>
       <c r="D627" s="4">
-        <v>87.111111111111114</v>
-      </c>
-    </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87.1111111111111</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>13</v>
       </c>
@@ -9048,10 +9100,10 @@
         <v>222018</v>
       </c>
       <c r="D628" s="2">
-        <v>106.3333333333333</v>
-      </c>
-    </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106.333333333333</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" s="3">
         <v>14</v>
       </c>
@@ -9062,10 +9114,10 @@
         <v>382018</v>
       </c>
       <c r="D629" s="4">
-        <v>109.2777777777778</v>
-      </c>
-    </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109.277777777778</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>15</v>
       </c>
@@ -9076,10 +9128,10 @@
         <v>192018</v>
       </c>
       <c r="D630" s="2">
-        <v>126.2777777777778</v>
-      </c>
-    </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126.277777777778</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" s="3">
         <v>17</v>
       </c>
@@ -9090,10 +9142,10 @@
         <v>302018</v>
       </c>
       <c r="D631" s="4">
-        <v>133.38888888888891</v>
-      </c>
-    </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+        <v>133.388888888889</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>16</v>
       </c>
@@ -9104,10 +9156,10 @@
         <v>232018</v>
       </c>
       <c r="D632" s="2">
-        <v>144.33333333333329</v>
-      </c>
-    </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+        <v>144.333333333333</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" s="3">
         <v>18</v>
       </c>
@@ -9118,10 +9170,10 @@
         <v>552018</v>
       </c>
       <c r="D633" s="4">
-        <v>164.94444444444451</v>
-      </c>
-    </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164.944444444445</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>19</v>
       </c>
@@ -9132,10 +9184,10 @@
         <v>142018</v>
       </c>
       <c r="D634" s="2">
-        <v>171.05555555555549</v>
-      </c>
-    </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171.055555555555</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" s="3">
         <v>20</v>
       </c>
@@ -9149,7 +9201,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>21</v>
       </c>
@@ -9160,10 +9212,10 @@
         <v>522018</v>
       </c>
       <c r="D636" s="2">
-        <v>286.61111111111109</v>
-      </c>
-    </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+        <v>286.61111111111097</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" s="3">
         <v>22</v>
       </c>
@@ -9174,10 +9226,10 @@
         <v>442018</v>
       </c>
       <c r="D637" s="4">
-        <v>310.77777777777783</v>
-      </c>
-    </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+        <v>310.777777777778</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>23</v>
       </c>
@@ -9188,10 +9240,10 @@
         <v>102018</v>
       </c>
       <c r="D638" s="2">
-        <v>321.33333333333331</v>
-      </c>
-    </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+        <v>321.33333333333297</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" s="3">
         <v>24</v>
       </c>
@@ -9202,10 +9254,10 @@
         <v>512018</v>
       </c>
       <c r="D639" s="4">
-        <v>392.44444444444451</v>
-      </c>
-    </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+        <v>392.44444444444503</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>25</v>
       </c>
@@ -9216,10 +9268,10 @@
         <v>482018</v>
       </c>
       <c r="D640" s="2">
-        <v>420.22222222222217</v>
-      </c>
-    </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+        <v>420.222222222222</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" s="3"/>
       <c r="B641" s="4" t="s">
         <v>40</v>
@@ -9231,7 +9283,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" s="1"/>
       <c r="B642" s="2" t="s">
         <v>35</v>
@@ -9243,7 +9295,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" s="3"/>
       <c r="B643" s="4" t="s">
         <v>37</v>
@@ -9255,7 +9307,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" s="1"/>
       <c r="B644" s="2" t="s">
         <v>20</v>
@@ -9267,7 +9319,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" s="3"/>
       <c r="B645" s="4" t="s">
         <v>7</v>
@@ -9279,7 +9331,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" s="1"/>
       <c r="B646" s="2" t="s">
         <v>31</v>
@@ -9291,7 +9343,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" s="3"/>
       <c r="B647" s="4" t="s">
         <v>33</v>
@@ -9303,7 +9355,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" s="1"/>
       <c r="B648" s="2" t="s">
         <v>15</v>
@@ -9315,7 +9367,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" s="3"/>
       <c r="B649" s="4" t="s">
         <v>30</v>
@@ -9327,7 +9379,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" s="1"/>
       <c r="B650" s="2" t="s">
         <v>22</v>
@@ -9339,7 +9391,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" s="3"/>
       <c r="B651" s="4" t="s">
         <v>41</v>
@@ -9351,7 +9403,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" s="1"/>
       <c r="B652" s="2" t="s">
         <v>17</v>
@@ -9363,7 +9415,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" s="3"/>
       <c r="B653" s="4" t="s">
         <v>39</v>
@@ -9375,7 +9427,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" s="1"/>
       <c r="B654" s="2" t="s">
         <v>16</v>
@@ -9387,7 +9439,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" s="3"/>
       <c r="B655" s="4" t="s">
         <v>12</v>
@@ -9399,7 +9451,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" s="1"/>
       <c r="B656" s="2" t="s">
         <v>36</v>
@@ -9411,7 +9463,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" s="3"/>
       <c r="B657" s="7" t="s">
         <v>24</v>
@@ -9423,7 +9475,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="3">
         <v>0</v>
       </c>
@@ -9434,10 +9486,10 @@
         <v>552019</v>
       </c>
       <c r="D658" s="4">
-        <v>1.677647058823529</v>
-      </c>
-    </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.6776470588235299</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <v>1</v>
       </c>
@@ -9448,10 +9500,10 @@
         <v>342019</v>
       </c>
       <c r="D659" s="2">
-        <v>9.2941176470588243</v>
-      </c>
-    </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.2941176470588207</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" s="3">
         <v>2</v>
       </c>
@@ -9462,10 +9514,10 @@
         <v>542019</v>
       </c>
       <c r="D660" s="4">
-        <v>10.147058823529409</v>
-      </c>
-    </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10.147058823529401</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <v>3</v>
       </c>
@@ -9476,10 +9528,10 @@
         <v>132019</v>
       </c>
       <c r="D661" s="2">
-        <v>11.47058823529412</v>
-      </c>
-    </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11.4705882352941</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" s="3">
         <v>4</v>
       </c>
@@ -9490,10 +9542,10 @@
         <v>532019</v>
       </c>
       <c r="D662" s="4">
-        <v>16.294117647058819</v>
-      </c>
-    </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16.294117647058801</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <v>5</v>
       </c>
@@ -9504,10 +9556,10 @@
         <v>422019</v>
       </c>
       <c r="D663" s="2">
-        <v>26.882352941176471</v>
-      </c>
-    </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26.882352941176499</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" s="3">
         <v>6</v>
       </c>
@@ -9518,10 +9570,10 @@
         <v>152019</v>
       </c>
       <c r="D664" s="4">
-        <v>33.294117647058833</v>
-      </c>
-    </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33.294117647058798</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <v>7</v>
       </c>
@@ -9532,10 +9584,10 @@
         <v>462019</v>
       </c>
       <c r="D665" s="2">
-        <v>41.588235294117638</v>
-      </c>
-    </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41.588235294117602</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" s="3">
         <v>8</v>
       </c>
@@ -9546,10 +9598,10 @@
         <v>312019</v>
       </c>
       <c r="D666" s="4">
-        <v>49.764705882352942</v>
-      </c>
-    </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49.764705882352899</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <v>9</v>
       </c>
@@ -9563,7 +9615,7 @@
         <v>58.823529411764703</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" s="3">
         <v>10</v>
       </c>
@@ -9574,10 +9626,10 @@
         <v>232019</v>
       </c>
       <c r="D668" s="4">
-        <v>92.058823529411768</v>
-      </c>
-    </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92.058823529411796</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <v>11</v>
       </c>
@@ -9588,10 +9640,10 @@
         <v>212019</v>
       </c>
       <c r="D669" s="2">
-        <v>93.764705882352942</v>
-      </c>
-    </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93.764705882352899</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" s="3">
         <v>12</v>
       </c>
@@ -9602,10 +9654,10 @@
         <v>242019</v>
       </c>
       <c r="D670" s="4">
-        <v>129.29411764705881</v>
-      </c>
-    </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+        <v>129.29411764705901</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" s="1">
         <v>13</v>
       </c>
@@ -9616,10 +9668,10 @@
         <v>522019</v>
       </c>
       <c r="D671" s="2">
-        <v>134.58823529411771</v>
-      </c>
-    </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+        <v>134.58823529411799</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" s="3">
         <v>14</v>
       </c>
@@ -9630,10 +9682,10 @@
         <v>412019</v>
       </c>
       <c r="D672" s="4">
-        <v>161.9411764705882</v>
-      </c>
-    </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161.941176470588</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <v>15</v>
       </c>
@@ -9644,10 +9696,10 @@
         <v>222019</v>
       </c>
       <c r="D673" s="2">
-        <v>165.1764705882353</v>
-      </c>
-    </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+        <v>165.17647058823499</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" s="3">
         <v>16</v>
       </c>
@@ -9658,10 +9710,10 @@
         <v>372019</v>
       </c>
       <c r="D674" s="4">
-        <v>188.47058823529409</v>
-      </c>
-    </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+        <v>188.470588235294</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <v>17</v>
       </c>
@@ -9672,10 +9724,10 @@
         <v>292019</v>
       </c>
       <c r="D675" s="2">
-        <v>191.0588235294118</v>
-      </c>
-    </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+        <v>191.058823529412</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" s="3">
         <v>18</v>
       </c>
@@ -9686,10 +9738,10 @@
         <v>482019</v>
       </c>
       <c r="D676" s="4">
-        <v>225.7647058823529</v>
-      </c>
-    </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+        <v>225.76470588235301</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <v>19</v>
       </c>
@@ -9700,10 +9752,10 @@
         <v>582019</v>
       </c>
       <c r="D677" s="2">
-        <v>234.0588235294118</v>
-      </c>
-    </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+        <v>234.058823529412</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" s="3">
         <v>21</v>
       </c>
@@ -9714,10 +9766,10 @@
         <v>162019</v>
       </c>
       <c r="D678" s="4">
-        <v>253.70588235294119</v>
-      </c>
-    </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+        <v>253.70588235294099</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <v>20</v>
       </c>
@@ -9728,10 +9780,10 @@
         <v>512019</v>
       </c>
       <c r="D679" s="2">
-        <v>262.52941176470591</v>
-      </c>
-    </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+        <v>262.52941176470603</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" s="3">
         <v>22</v>
       </c>
@@ -9742,10 +9794,10 @@
         <v>332019</v>
       </c>
       <c r="D680" s="4">
-        <v>287.8235294117647</v>
-      </c>
-    </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+        <v>287.82352941176498</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <v>23</v>
       </c>
@@ -9756,10 +9808,10 @@
         <v>102019</v>
       </c>
       <c r="D681" s="2">
-        <v>300.76470588235293</v>
-      </c>
-    </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300.76470588235298</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682" s="3">
         <v>24</v>
       </c>
@@ -9770,10 +9822,10 @@
         <v>282019</v>
       </c>
       <c r="D682" s="4">
-        <v>327.23529411764707</v>
-      </c>
-    </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+        <v>327.23529411764702</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <v>25</v>
       </c>
@@ -9784,10 +9836,10 @@
         <v>472019</v>
       </c>
       <c r="D683" s="2">
-        <v>336.05882352941182</v>
-      </c>
-    </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+        <v>336.058823529412</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684" s="3"/>
       <c r="B684" s="4" t="s">
         <v>36</v>
@@ -9799,7 +9851,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685" s="1"/>
       <c r="B685" s="2" t="s">
         <v>27</v>
@@ -9811,7 +9863,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686" s="3"/>
       <c r="B686" s="4" t="s">
         <v>7</v>
@@ -9823,7 +9875,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687" s="1"/>
       <c r="B687" s="2" t="s">
         <v>35</v>
@@ -9835,7 +9887,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A688" s="3"/>
       <c r="B688" s="4" t="s">
         <v>18</v>
@@ -9847,7 +9899,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" s="1"/>
       <c r="B689" s="2" t="s">
         <v>48</v>
@@ -9859,7 +9911,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" s="3"/>
       <c r="B690" s="4" t="s">
         <v>12</v>
@@ -9871,7 +9923,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" s="1"/>
       <c r="B691" s="2" t="s">
         <v>22</v>
@@ -9883,7 +9935,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" s="3"/>
       <c r="B692" s="4" t="s">
         <v>8</v>
@@ -9895,7 +9947,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" s="1"/>
       <c r="B693" s="2" t="s">
         <v>32</v>
@@ -9907,7 +9959,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694" s="3"/>
       <c r="B694" s="4" t="s">
         <v>39</v>
@@ -9919,7 +9971,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695" s="1"/>
       <c r="B695" s="2" t="s">
         <v>40</v>
@@ -9931,7 +9983,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696" s="3"/>
       <c r="B696" s="4" t="s">
         <v>47</v>
@@ -9943,7 +9995,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697" s="1"/>
       <c r="B697" s="2" t="s">
         <v>15</v>
@@ -9955,7 +10007,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A698" s="3"/>
       <c r="B698" s="7" t="s">
         <v>29</v>
@@ -9967,7 +10019,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699" s="3">
         <v>0</v>
       </c>
@@ -9978,10 +10030,10 @@
         <v>342021</v>
       </c>
       <c r="D699" s="4">
-        <v>3.2126315789473678</v>
-      </c>
-    </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.2126315789473701</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A700" s="1">
         <v>1</v>
       </c>
@@ -9992,10 +10044,10 @@
         <v>262021</v>
       </c>
       <c r="D700" s="2">
-        <v>3.8789473684210529</v>
-      </c>
-    </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.8789473684210498</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701" s="3">
         <v>2</v>
       </c>
@@ -10006,10 +10058,10 @@
         <v>372021</v>
       </c>
       <c r="D701" s="4">
-        <v>5.102631578947368</v>
-      </c>
-    </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.1026315789473697</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702" s="1">
         <v>3</v>
       </c>
@@ -10020,10 +10072,10 @@
         <v>572021</v>
       </c>
       <c r="D702" s="2">
-        <v>14.10526315789474</v>
-      </c>
-    </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14.105263157894701</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703" s="3">
         <v>5</v>
       </c>
@@ -10034,10 +10086,10 @@
         <v>542021</v>
       </c>
       <c r="D703" s="4">
-        <v>16.05263157894737</v>
-      </c>
-    </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16.052631578947398</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A704" s="1">
         <v>4</v>
       </c>
@@ -10048,10 +10100,10 @@
         <v>252021</v>
       </c>
       <c r="D704" s="2">
-        <v>16.078947368421051</v>
-      </c>
-    </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16.078947368421101</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705" s="3">
         <v>6</v>
       </c>
@@ -10062,10 +10114,10 @@
         <v>312021</v>
       </c>
       <c r="D705" s="4">
-        <v>17.631578947368421</v>
-      </c>
-    </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17.6315789473684</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" s="1">
         <v>7</v>
       </c>
@@ -10076,10 +10128,10 @@
         <v>362021</v>
       </c>
       <c r="D706" s="2">
-        <v>44.210526315789473</v>
-      </c>
-    </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44.210526315789501</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" s="3">
         <v>8</v>
       </c>
@@ -10090,10 +10142,10 @@
         <v>532021</v>
       </c>
       <c r="D707" s="4">
-        <v>45.10526315789474</v>
-      </c>
-    </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45.105263157894697</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708" s="1">
         <v>9</v>
       </c>
@@ -10104,10 +10156,10 @@
         <v>472021</v>
       </c>
       <c r="D708" s="2">
-        <v>61.473684210526322</v>
-      </c>
-    </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61.473684210526301</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" s="3">
         <v>10</v>
       </c>
@@ -10118,10 +10170,10 @@
         <v>422021</v>
       </c>
       <c r="D709" s="4">
-        <v>69.94736842105263</v>
-      </c>
-    </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69.947368421052602</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" s="1">
         <v>11</v>
       </c>
@@ -10132,10 +10184,10 @@
         <v>442021</v>
       </c>
       <c r="D710" s="2">
-        <v>78.421052631578945</v>
-      </c>
-    </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78.421052631578902</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711" s="3">
         <v>12</v>
       </c>
@@ -10146,10 +10198,10 @@
         <v>192021</v>
       </c>
       <c r="D711" s="4">
-        <v>86.94736842105263</v>
-      </c>
-    </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86.947368421052602</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" s="1">
         <v>13</v>
       </c>
@@ -10160,10 +10212,10 @@
         <v>212021</v>
       </c>
       <c r="D712" s="2">
-        <v>104.21052631578949</v>
-      </c>
-    </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104.210526315789</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" s="3">
         <v>14</v>
       </c>
@@ -10174,10 +10226,10 @@
         <v>152021</v>
       </c>
       <c r="D713" s="4">
-        <v>127.0526315789474</v>
-      </c>
-    </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127.052631578947</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" s="1">
         <v>15</v>
       </c>
@@ -10188,10 +10240,10 @@
         <v>292021</v>
       </c>
       <c r="D714" s="2">
-        <v>154.21052631578951</v>
-      </c>
-    </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154.21052631578999</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715" s="3">
         <v>16</v>
       </c>
@@ -10205,7 +10257,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A716" s="1">
         <v>17</v>
       </c>
@@ -10216,10 +10268,10 @@
         <v>482021</v>
       </c>
       <c r="D716" s="2">
-        <v>215.4736842105263</v>
-      </c>
-    </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+        <v>215.47368421052599</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A717" s="3">
         <v>18</v>
       </c>
@@ -10230,10 +10282,10 @@
         <v>332021</v>
       </c>
       <c r="D717" s="4">
-        <v>260.21052631578948</v>
-      </c>
-    </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+        <v>260.21052631578902</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A718" s="1">
         <v>19</v>
       </c>
@@ -10244,10 +10296,10 @@
         <v>552021</v>
       </c>
       <c r="D718" s="2">
-        <v>328.36842105263162</v>
-      </c>
-    </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+        <v>328.36842105263202</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719" s="3">
         <v>20</v>
       </c>
@@ -10258,10 +10310,10 @@
         <v>172021</v>
       </c>
       <c r="D719" s="4">
-        <v>378.36842105263162</v>
-      </c>
-    </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+        <v>378.36842105263202</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A720" s="1">
         <v>21</v>
       </c>
@@ -10272,10 +10324,10 @@
         <v>582021</v>
       </c>
       <c r="D720" s="2">
-        <v>393.68421052631578</v>
-      </c>
-    </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+        <v>393.68421052631601</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A721" s="3">
         <v>23</v>
       </c>
@@ -10286,10 +10338,10 @@
         <v>282021</v>
       </c>
       <c r="D721" s="4">
-        <v>398.89473684210532</v>
-      </c>
-    </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+        <v>398.89473684210498</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A722" s="1">
         <v>22</v>
       </c>
@@ -10300,10 +10352,10 @@
         <v>382021</v>
       </c>
       <c r="D722" s="2">
-        <v>409.94736842105272</v>
-      </c>
-    </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+        <v>409.947368421053</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A723" s="3">
         <v>24</v>
       </c>
@@ -10314,10 +10366,10 @@
         <v>522021</v>
       </c>
       <c r="D723" s="4">
-        <v>491.5263157894737</v>
-      </c>
-    </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+        <v>491.52631578947398</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724" s="1">
         <v>25</v>
       </c>
@@ -10331,7 +10383,7 @@
         <v>512.57894736842104</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725" s="3"/>
       <c r="B725" s="4" t="s">
         <v>43</v>
@@ -10343,7 +10395,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A726" s="1"/>
       <c r="B726" s="2" t="s">
         <v>8</v>
@@ -10355,7 +10407,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" s="3"/>
       <c r="B727" s="4" t="s">
         <v>15</v>
@@ -10367,7 +10419,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728" s="1"/>
       <c r="B728" s="2" t="s">
         <v>46</v>
@@ -10379,7 +10431,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729" s="3"/>
       <c r="B729" s="4" t="s">
         <v>5</v>
@@ -10391,7 +10443,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730" s="1"/>
       <c r="B730" s="2" t="s">
         <v>40</v>
@@ -10403,7 +10455,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731" s="3"/>
       <c r="B731" s="4" t="s">
         <v>18</v>
@@ -10415,7 +10467,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732" s="1"/>
       <c r="B732" s="2" t="s">
         <v>12</v>
@@ -10427,7 +10479,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733" s="3"/>
       <c r="B733" s="4" t="s">
         <v>33</v>
@@ -10439,7 +10491,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734" s="1"/>
       <c r="B734" s="2" t="s">
         <v>39</v>
@@ -10451,7 +10503,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735" s="3"/>
       <c r="B735" s="4" t="s">
         <v>22</v>
@@ -10463,7 +10515,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A736" s="1"/>
       <c r="B736" s="2" t="s">
         <v>13</v>
@@ -10475,7 +10527,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A737" s="3"/>
       <c r="B737" s="7" t="s">
         <v>11</v>
@@ -10487,7 +10539,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A738" s="3">
         <v>0</v>
       </c>
@@ -10498,10 +10550,10 @@
         <v>572022</v>
       </c>
       <c r="D738" s="4">
-        <v>1.3366666666666669</v>
-      </c>
-    </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.33666666666667</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A739" s="1">
         <v>1</v>
       </c>
@@ -10512,10 +10564,10 @@
         <v>532022</v>
       </c>
       <c r="D739" s="2">
-        <v>6.0766666666666662</v>
-      </c>
-    </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.0766666666666698</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A740" s="3">
         <v>2</v>
       </c>
@@ -10526,10 +10578,10 @@
         <v>522022</v>
       </c>
       <c r="D740" s="4">
-        <v>13.388888888888889</v>
-      </c>
-    </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13.3888888888889</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741" s="1">
         <v>3</v>
       </c>
@@ -10540,10 +10592,10 @@
         <v>582022</v>
       </c>
       <c r="D741" s="2">
-        <v>13.986111111111111</v>
-      </c>
-    </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13.9861111111111</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A742" s="3">
         <v>4</v>
       </c>
@@ -10554,10 +10606,10 @@
         <v>342022</v>
       </c>
       <c r="D742" s="4">
-        <v>34.462777777777781</v>
-      </c>
-    </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34.462777777777802</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743" s="1">
         <v>5</v>
       </c>
@@ -10568,10 +10620,10 @@
         <v>422022</v>
       </c>
       <c r="D743" s="2">
-        <v>77.111111111111114</v>
-      </c>
-    </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77.1111111111111</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744" s="3">
         <v>6</v>
       </c>
@@ -10582,10 +10634,10 @@
         <v>432022</v>
       </c>
       <c r="D744" s="4">
-        <v>95.111111111111114</v>
-      </c>
-    </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95.1111111111111</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745" s="1">
         <v>7</v>
       </c>
@@ -10596,10 +10648,10 @@
         <v>482022</v>
       </c>
       <c r="D745" s="2">
-        <v>99.277777777777771</v>
-      </c>
-    </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99.2777777777778</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A746" s="3">
         <v>9</v>
       </c>
@@ -10613,7 +10665,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A747" s="1">
         <v>8</v>
       </c>
@@ -10624,10 +10676,10 @@
         <v>292022</v>
       </c>
       <c r="D747" s="2">
-        <v>102.3333333333333</v>
-      </c>
-    </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102.333333333333</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A748" s="3">
         <v>10</v>
       </c>
@@ -10638,10 +10690,10 @@
         <v>552022</v>
       </c>
       <c r="D748" s="4">
-        <v>127.8888888888889</v>
-      </c>
-    </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127.888888888889</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A749" s="1">
         <v>12</v>
       </c>
@@ -10652,10 +10704,10 @@
         <v>242022</v>
       </c>
       <c r="D749" s="2">
-        <v>220.8235294117647</v>
-      </c>
-    </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220.82352941176501</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A750" s="3">
         <v>11</v>
       </c>
@@ -10666,10 +10718,10 @@
         <v>252022</v>
       </c>
       <c r="D750" s="4">
-        <v>223.88888888888891</v>
-      </c>
-    </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+        <v>223.888888888889</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A751" s="1">
         <v>13</v>
       </c>
@@ -10680,10 +10732,10 @@
         <v>132022</v>
       </c>
       <c r="D751" s="2">
-        <v>239.94444444444451</v>
-      </c>
-    </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+        <v>239.944444444445</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A752" s="3">
         <v>14</v>
       </c>
@@ -10694,10 +10746,10 @@
         <v>222022</v>
       </c>
       <c r="D752" s="4">
-        <v>325.83333333333331</v>
-      </c>
-    </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+        <v>325.83333333333297</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753" s="1">
         <v>17</v>
       </c>
@@ -10708,10 +10760,10 @@
         <v>282022</v>
       </c>
       <c r="D753" s="2">
-        <v>334.16666666666669</v>
-      </c>
-    </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+        <v>334.16666666666703</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A754" s="3">
         <v>15</v>
       </c>
@@ -10722,10 +10774,10 @@
         <v>442022</v>
       </c>
       <c r="D754" s="4">
-        <v>335.27777777777783</v>
-      </c>
-    </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+        <v>335.277777777778</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A755" s="1">
         <v>16</v>
       </c>
@@ -10736,10 +10788,10 @@
         <v>122022</v>
       </c>
       <c r="D755" s="2">
-        <v>340.23529411764707</v>
-      </c>
-    </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+        <v>340.23529411764702</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A756" s="3">
         <v>18</v>
       </c>
@@ -10750,10 +10802,10 @@
         <v>262022</v>
       </c>
       <c r="D756" s="4">
-        <v>363.33333333333331</v>
-      </c>
-    </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+        <v>363.33333333333297</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A757" s="1">
         <v>19</v>
       </c>
@@ -10764,10 +10816,10 @@
         <v>152022</v>
       </c>
       <c r="D757" s="2">
-        <v>386.11764705882348</v>
-      </c>
-    </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+        <v>386.11764705882302</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A758" s="3">
         <v>20</v>
       </c>
@@ -10778,10 +10830,10 @@
         <v>312022</v>
       </c>
       <c r="D758" s="4">
-        <v>418.47058823529409</v>
-      </c>
-    </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+        <v>418.47058823529397</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A759" s="1">
         <v>21</v>
       </c>
@@ -10792,10 +10844,10 @@
         <v>452022</v>
       </c>
       <c r="D759" s="2">
-        <v>425.83333333333331</v>
-      </c>
-    </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+        <v>425.83333333333297</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A760" s="3">
         <v>22</v>
       </c>
@@ -10806,10 +10858,10 @@
         <v>542022</v>
       </c>
       <c r="D760" s="4">
-        <v>439.35294117647061</v>
-      </c>
-    </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+        <v>439.35294117647101</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A761" s="1">
         <v>23</v>
       </c>
@@ -10820,10 +10872,10 @@
         <v>172022</v>
       </c>
       <c r="D761" s="2">
-        <v>444.16666666666669</v>
-      </c>
-    </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+        <v>444.16666666666703</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A762" s="3">
         <v>24</v>
       </c>
@@ -10834,10 +10886,10 @@
         <v>362022</v>
       </c>
       <c r="D762" s="4">
-        <v>474.35294117647061</v>
-      </c>
-    </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+        <v>474.35294117647101</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A763" s="1"/>
       <c r="B763" s="2" t="s">
         <v>8</v>
@@ -10849,7 +10901,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A764" s="3"/>
       <c r="B764" s="4" t="s">
         <v>34</v>
@@ -10861,7 +10913,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A765" s="1"/>
       <c r="B765" s="2" t="s">
         <v>15</v>
@@ -10873,7 +10925,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A766" s="3"/>
       <c r="B766" s="4" t="s">
         <v>11</v>
@@ -10885,7 +10937,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A767" s="1"/>
       <c r="B767" s="2" t="s">
         <v>40</v>
@@ -10897,7 +10949,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A768" s="3"/>
       <c r="B768" s="4" t="s">
         <v>18</v>
@@ -10909,7 +10961,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A769" s="1"/>
       <c r="B769" s="2" t="s">
         <v>42</v>
@@ -10921,7 +10973,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A770" s="3"/>
       <c r="B770" s="4" t="s">
         <v>12</v>
@@ -10933,7 +10985,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A771" s="1"/>
       <c r="B771" s="2" t="s">
         <v>16</v>
@@ -10945,7 +10997,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A772" s="3"/>
       <c r="B772" s="4" t="s">
         <v>36</v>
@@ -10957,7 +11009,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773" s="1"/>
       <c r="B773" s="2" t="s">
         <v>33</v>
@@ -10969,7 +11021,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A774" s="3"/>
       <c r="B774" s="4" t="s">
         <v>41</v>
@@ -10981,7 +11033,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A775" s="1"/>
       <c r="B775" s="2" t="s">
         <v>44</v>
@@ -10993,7 +11045,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A776" s="3"/>
       <c r="B776" s="4" t="s">
         <v>10</v>
@@ -11005,7 +11057,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777" s="9"/>
       <c r="B777" s="8" t="s">
         <v>13</v>
@@ -11017,69 +11069,516 @@
         <v>550</v>
       </c>
     </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A778" s="12"/>
+      <c r="B778" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C778">
+        <v>532023</v>
+      </c>
+      <c r="D778">
+        <v>1.47294117647058</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A779" s="12"/>
+      <c r="B779" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C779">
+        <v>252023</v>
+      </c>
+      <c r="D779">
+        <v>3.5470588235294098</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A780" s="12"/>
+      <c r="B780" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C780">
+        <v>332023</v>
+      </c>
+      <c r="D780">
+        <v>26.8823529411764</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A781" s="12"/>
+      <c r="B781" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C781">
+        <v>342023</v>
+      </c>
+      <c r="D781">
+        <v>76.352941176470594</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A782" s="12"/>
+      <c r="B782" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C782">
+        <v>422023</v>
+      </c>
+      <c r="D782">
+        <v>30.411764705882302</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A783" s="12"/>
+      <c r="B783" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C783">
+        <v>572023</v>
+      </c>
+      <c r="D783">
+        <v>11.823529411764699</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A784" s="12"/>
+      <c r="B784" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C784">
+        <v>172023</v>
+      </c>
+      <c r="D784">
+        <v>109.058823529411</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A785" s="12"/>
+      <c r="B785" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C785">
+        <v>242023</v>
+      </c>
+      <c r="D785">
+        <v>287.29411764705799</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A786" s="12"/>
+      <c r="B786" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C786">
+        <v>132023</v>
+      </c>
+      <c r="D786">
+        <v>131.23529411764699</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A787" s="12"/>
+      <c r="B787" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C787">
+        <v>222023</v>
+      </c>
+      <c r="D787">
+        <v>171.17647058823499</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A788" s="12"/>
+      <c r="B788" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C788">
+        <v>362023</v>
+      </c>
+      <c r="D788">
+        <v>334.35294117646998</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A789" s="12"/>
+      <c r="B789" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C789">
+        <v>212023</v>
+      </c>
+      <c r="D789">
+        <v>237.29411764705799</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A790" s="12"/>
+      <c r="B790" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C790">
+        <v>202023</v>
+      </c>
+      <c r="D790">
+        <v>112.35294117647</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A791" s="12"/>
+      <c r="B791" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C791">
+        <v>122023</v>
+      </c>
+      <c r="D791">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A792" s="12"/>
+      <c r="B792" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C792">
+        <v>142023</v>
+      </c>
+      <c r="D792">
+        <v>93.823529411764696</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A793" s="12"/>
+      <c r="B793" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C793">
+        <v>262023</v>
+      </c>
+      <c r="D793">
+        <v>27.235294117647001</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A794" s="12"/>
+      <c r="B794" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C794">
+        <v>522023</v>
+      </c>
+      <c r="D794">
+        <v>29.470588235294102</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A795" s="12"/>
+      <c r="B795" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C795">
+        <v>382023</v>
+      </c>
+      <c r="D795">
+        <v>263.76470588235202</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A796" s="12"/>
+      <c r="B796" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C796">
+        <v>432023</v>
+      </c>
+      <c r="D796">
+        <v>225.82352941176401</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A797" s="12"/>
+      <c r="B797" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C797">
+        <v>542023</v>
+      </c>
+      <c r="D797">
+        <v>206.41176470588201</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A798" s="12"/>
+      <c r="B798" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C798">
+        <v>512023</v>
+      </c>
+      <c r="D798">
+        <v>229.35294117647001</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A799" s="12"/>
+      <c r="B799" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C799">
+        <v>102023</v>
+      </c>
+      <c r="D799">
+        <v>413.76470588235202</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A800" s="12"/>
+      <c r="B800" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C800">
+        <v>442023</v>
+      </c>
+      <c r="D800">
+        <v>316.70588235294099</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A801" s="12"/>
+      <c r="B801" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C801">
+        <v>482023</v>
+      </c>
+      <c r="D801">
+        <v>265.23529411764702</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A802" s="12"/>
+      <c r="B802" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C802">
+        <v>582023</v>
+      </c>
+      <c r="D802">
+        <v>81.411764705882305</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A803" s="12"/>
+      <c r="B803" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C803">
+        <v>282023</v>
+      </c>
+      <c r="D803">
+        <v>219.64705882352899</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A804" s="12"/>
+      <c r="B804" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C804">
+        <v>552023</v>
+      </c>
+      <c r="D804">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A805" s="12"/>
+      <c r="B805" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C805">
+        <v>322023</v>
+      </c>
+      <c r="D805">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A806" s="12"/>
+      <c r="B806" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C806">
+        <v>232023</v>
+      </c>
+      <c r="D806">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A807" s="12"/>
+      <c r="B807" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C807">
+        <v>452023</v>
+      </c>
+      <c r="D807">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A808" s="12"/>
+      <c r="B808" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C808">
+        <v>292023</v>
+      </c>
+      <c r="D808">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A809" s="12"/>
+      <c r="B809" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C809">
+        <v>152023</v>
+      </c>
+      <c r="D809">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A810" s="12"/>
+      <c r="B810" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C810">
+        <v>352023</v>
+      </c>
+      <c r="D810">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A811" s="12"/>
+      <c r="B811" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C811">
+        <v>312023</v>
+      </c>
+      <c r="D811">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A812" s="12"/>
+      <c r="B812" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C812">
+        <v>272023</v>
+      </c>
+      <c r="D812">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A813" s="12"/>
+      <c r="B813" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C813">
+        <v>372023</v>
+      </c>
+      <c r="D813">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A814" s="13"/>
+      <c r="B814" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C814">
+        <v>472023</v>
+      </c>
+      <c r="D814">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C778:C1048576">
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C1:C25">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C51">
-    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C87">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C88:C126">
-    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127:C163">
-    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C164:C205">
-    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C206:C248">
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C249:C290">
-    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C291:C329">
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C330:C372">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C373:C414">
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C415:C453">
-    <cfRule type="duplicateValues" dxfId="8" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C454:C490">
-    <cfRule type="duplicateValues" dxfId="7" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C491:C530">
-    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C531:C572">
-    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C573:C614">
-    <cfRule type="duplicateValues" dxfId="4" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C615:C657">
-    <cfRule type="duplicateValues" dxfId="3" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C658:C698">
-    <cfRule type="duplicateValues" dxfId="2" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C699:C737">
-    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C738:C777">
-    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C815:C1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B778:B814">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data/Apuestas_TOTAL.xlsx
+++ b/data/Apuestas_TOTAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/adrian_castells-ext_globalservs_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_5B01C5C71BF52C02DAB34E4F73C4D1CFC63DE635" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E694708-006F-4E72-B917-C60B138EFEA6}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="11_5B01C5C71BF52C02DAB34E4F73C4D1CFC63DE635" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B942CA8-C593-4C6C-8DF2-418C2A702155}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -350,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -377,7 +377,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,6 +675,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -980,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D814"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A788" workbookViewId="0">
-      <selection activeCell="D794" sqref="D794"/>
+    <sheetView tabSelected="1" topLeftCell="A794" workbookViewId="0">
+      <selection activeCell="D799" sqref="D799"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11390,7 +11393,7 @@
         <v>552023</v>
       </c>
       <c r="D804">
-        <v>1000</v>
+        <v>550</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.3">
@@ -11402,7 +11405,7 @@
         <v>322023</v>
       </c>
       <c r="D805">
-        <v>1000</v>
+        <v>550</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.3">
@@ -11414,7 +11417,7 @@
         <v>232023</v>
       </c>
       <c r="D806">
-        <v>1000</v>
+        <v>550</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.3">
@@ -11426,7 +11429,7 @@
         <v>452023</v>
       </c>
       <c r="D807">
-        <v>1000</v>
+        <v>550</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.3">
@@ -11438,7 +11441,7 @@
         <v>292023</v>
       </c>
       <c r="D808">
-        <v>1000</v>
+        <v>550</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.3">
@@ -11450,7 +11453,7 @@
         <v>152023</v>
       </c>
       <c r="D809">
-        <v>1000</v>
+        <v>550</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.3">
@@ -11462,7 +11465,7 @@
         <v>352023</v>
       </c>
       <c r="D810">
-        <v>1000</v>
+        <v>550</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.3">
@@ -11474,7 +11477,7 @@
         <v>312023</v>
       </c>
       <c r="D811">
-        <v>1000</v>
+        <v>550</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.3">
@@ -11486,7 +11489,7 @@
         <v>272023</v>
       </c>
       <c r="D812">
-        <v>1000</v>
+        <v>550</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.3">
@@ -11498,87 +11501,87 @@
         <v>372023</v>
       </c>
       <c r="D813">
-        <v>1000</v>
+        <v>550</v>
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A814" s="13"/>
-      <c r="B814" s="14" t="s">
+      <c r="B814" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C814">
         <v>472023</v>
       </c>
       <c r="D814">
-        <v>1000</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B778:B814">
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C1:C25">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C51">
-    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C87">
-    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C88:C126">
-    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127:C163">
-    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C164:C205">
-    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C206:C248">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C249:C290">
-    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C291:C329">
-    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C330:C372">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C373:C414">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C415:C453">
-    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C454:C490">
-    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C491:C530">
-    <cfRule type="duplicateValues" dxfId="8" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C531:C572">
-    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C573:C614">
-    <cfRule type="duplicateValues" dxfId="6" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C615:C657">
-    <cfRule type="duplicateValues" dxfId="5" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C658:C698">
-    <cfRule type="duplicateValues" dxfId="4" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C699:C737">
-    <cfRule type="duplicateValues" dxfId="3" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C738:C777">
-    <cfRule type="duplicateValues" dxfId="2" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C815:C1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B778:B814">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
